--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winma\eclipse-workspace\MyStoreProject\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winma\git\MyStore\MyStoreProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D5B24-AC96-4969-BA6C-0A03C3847C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D5950-20EB-4F0E-BF8E-6FAF49DDB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Email" sheetId="2" r:id="rId2"/>
     <sheet name="ProductDetails" sheetId="3" r:id="rId3"/>
     <sheet name="SearchProduct" sheetId="4" r:id="rId4"/>
+    <sheet name="Testcases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>username</t>
   </si>
@@ -64,13 +65,159 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Pages Classes</t>
+  </si>
+  <si>
+    <t>TestClasses</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>IndexPage</t>
+  </si>
+  <si>
+    <t>IndexPageTest</t>
+  </si>
+  <si>
+    <t>myStoreLogoTest
+myStoreTitle</t>
+  </si>
+  <si>
+    <t>Smoke
+Smoke</t>
+  </si>
+  <si>
+    <t>Logo should be present
+Title should match with expected value</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>LoginPageTest</t>
+  </si>
+  <si>
+    <t>loginTest</t>
+  </si>
+  <si>
+    <t>Sanity, Smoke</t>
+  </si>
+  <si>
+    <t>User should be able to login</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>HomePageTest</t>
+  </si>
+  <si>
+    <t>wishListTest
+orderHistoryandDetailsTest</t>
+  </si>
+  <si>
+    <t>WishList should be displayed
+OderHistory should be displayed</t>
+  </si>
+  <si>
+    <t>AccountCreationPage</t>
+  </si>
+  <si>
+    <t>AccountCreationTest</t>
+  </si>
+  <si>
+    <t>createAccountPageTest</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>User should be navigate to account creation page</t>
+  </si>
+  <si>
+    <t>SearchResultPage</t>
+  </si>
+  <si>
+    <t>SearchResultPageTest</t>
+  </si>
+  <si>
+    <t>productAvailabilityTest</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Search the product and product should be displayed</t>
+  </si>
+  <si>
+    <t>AddToCartPage</t>
+  </si>
+  <si>
+    <t>AddToCartPageTest</t>
+  </si>
+  <si>
+    <t>addToCartTest</t>
+  </si>
+  <si>
+    <t>Regression, Sanity</t>
+  </si>
+  <si>
+    <t>User should be able to add the product in the cart</t>
+  </si>
+  <si>
+    <t>OrderPage</t>
+  </si>
+  <si>
+    <t>OrderPageTest</t>
+  </si>
+  <si>
+    <t>priceTest</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>AddressPage</t>
+  </si>
+  <si>
+    <t>Validate the Price on Order Page</t>
+  </si>
+  <si>
+    <t>ShippingPage</t>
+  </si>
+  <si>
+    <t>PaymentPage</t>
+  </si>
+  <si>
+    <t>OrderSummary</t>
+  </si>
+  <si>
+    <t>OrderConfirmationPage</t>
+  </si>
+  <si>
+    <t>EndToEndTest</t>
+  </si>
+  <si>
+    <t>endToEndTest</t>
+  </si>
+  <si>
+    <t>User should be able to order the product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +229,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,9 +263,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,7 +556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -458,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79E66DA-8EDB-4F71-A2A3-F3C1493128EB}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -514,4 +678,217 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0897BFD5-81DD-4CFC-8BF9-B671E5D67AB1}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MyStoreProject/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject/src/test/resources/TestData/TestData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winma\git\MyStore\MyStoreProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D5950-20EB-4F0E-BF8E-6FAF49DDB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB485028-AB52-4093-A0E4-7C139E659E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Email" sheetId="2" r:id="rId2"/>
     <sheet name="ProductDetails" sheetId="3" r:id="rId3"/>
     <sheet name="SearchProduct" sheetId="4" r:id="rId4"/>
-    <sheet name="Testcases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -65,159 +64,13 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>Pages Classes</t>
-  </si>
-  <si>
-    <t>TestClasses</t>
-  </si>
-  <si>
-    <t>TestCases</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>IndexPage</t>
-  </si>
-  <si>
-    <t>IndexPageTest</t>
-  </si>
-  <si>
-    <t>myStoreLogoTest
-myStoreTitle</t>
-  </si>
-  <si>
-    <t>Smoke
-Smoke</t>
-  </si>
-  <si>
-    <t>Logo should be present
-Title should match with expected value</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>LoginPageTest</t>
-  </si>
-  <si>
-    <t>loginTest</t>
-  </si>
-  <si>
-    <t>Sanity, Smoke</t>
-  </si>
-  <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>HomePageTest</t>
-  </si>
-  <si>
-    <t>wishListTest
-orderHistoryandDetailsTest</t>
-  </si>
-  <si>
-    <t>WishList should be displayed
-OderHistory should be displayed</t>
-  </si>
-  <si>
-    <t>AccountCreationPage</t>
-  </si>
-  <si>
-    <t>AccountCreationTest</t>
-  </si>
-  <si>
-    <t>createAccountPageTest</t>
-  </si>
-  <si>
-    <t>Sanity</t>
-  </si>
-  <si>
-    <t>User should be navigate to account creation page</t>
-  </si>
-  <si>
-    <t>SearchResultPage</t>
-  </si>
-  <si>
-    <t>SearchResultPageTest</t>
-  </si>
-  <si>
-    <t>productAvailabilityTest</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Search the product and product should be displayed</t>
-  </si>
-  <si>
-    <t>AddToCartPage</t>
-  </si>
-  <si>
-    <t>AddToCartPageTest</t>
-  </si>
-  <si>
-    <t>addToCartTest</t>
-  </si>
-  <si>
-    <t>Regression, Sanity</t>
-  </si>
-  <si>
-    <t>User should be able to add the product in the cart</t>
-  </si>
-  <si>
-    <t>OrderPage</t>
-  </si>
-  <si>
-    <t>OrderPageTest</t>
-  </si>
-  <si>
-    <t>priceTest</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>AddressPage</t>
-  </si>
-  <si>
-    <t>Validate the Price on Order Page</t>
-  </si>
-  <si>
-    <t>ShippingPage</t>
-  </si>
-  <si>
-    <t>PaymentPage</t>
-  </si>
-  <si>
-    <t>OrderSummary</t>
-  </si>
-  <si>
-    <t>OrderConfirmationPage</t>
-  </si>
-  <si>
-    <t>EndToEndTest</t>
-  </si>
-  <si>
-    <t>endToEndTest</t>
-  </si>
-  <si>
-    <t>User should be able to order the product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +82,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,16 +108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -659,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41D404-B9E1-43D7-9283-FE57126122A8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -678,217 +516,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0897BFD5-81DD-4CFC-8BF9-B671E5D67AB1}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>